--- a/REGULAR/CTO/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/CTO/REPILLO AMMY LOU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -188,9 +188,6 @@
     <t>2/23/2018</t>
   </si>
   <si>
-    <t>UL(2-0-00)</t>
-  </si>
-  <si>
     <t>SP(2-0-00)</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>10/24/2018</t>
   </si>
   <si>
-    <t>SOLO</t>
-  </si>
-  <si>
     <t>FL(1-0-00)</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>UL(10-0-00)</t>
-  </si>
-  <si>
     <t>2/18/3/2/2020</t>
   </si>
   <si>
@@ -396,6 +387,21 @@
   </si>
   <si>
     <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>VL(2-0-00)</t>
+  </si>
+  <si>
+    <t>VL(1-0-00)</t>
+  </si>
+  <si>
+    <t>SOLO PARENT</t>
+  </si>
+  <si>
+    <t>VL(10-0-00)</t>
+  </si>
+  <si>
+    <t>UT(0-2-10)</t>
   </si>
 </sst>
 </file>
@@ -1419,9 +1425,9 @@
   <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1586,7 +1592,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.716000000000008</v>
+        <v>52.445000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1596,7 +1602,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.75</v>
+        <v>58.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1736,7 +1742,7 @@
         <v>43191</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C16" s="42">
         <v>1.25</v>
@@ -1754,13 +1760,13 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39">
@@ -1776,7 +1782,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1798,7 +1804,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1822,7 +1828,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1894,7 +1900,7 @@
         <v>43313</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -1912,7 +1918,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1934,7 +1940,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1942,7 +1948,7 @@
         <v>43344</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -1960,7 +1966,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1986,7 +1992,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2008,13 +2014,13 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -2056,7 +2062,7 @@
         <v>43435</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -2074,13 +2080,13 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -2099,7 +2105,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -2138,7 +2144,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2146,7 +2152,7 @@
         <v>43497</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -2168,7 +2174,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -2182,13 +2188,13 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -2204,7 +2210,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2228,13 +2234,13 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -2250,13 +2256,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -2274,7 +2280,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2348,7 +2354,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2376,7 +2382,7 @@
         <v>43647</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39">
@@ -2392,13 +2398,13 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -2416,7 +2422,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2514,7 +2520,7 @@
         <v>43770</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -2530,7 +2536,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2555,7 +2561,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2596,7 +2602,7 @@
         <v>43862</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -2614,7 +2620,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2720,7 +2726,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2744,7 +2750,7 @@
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2851,7 +2857,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2992,7 +2998,7 @@
         <v>44409</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -3008,7 +3014,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3036,7 +3042,7 @@
         <v>44470</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -3054,7 +3060,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3082,7 +3088,7 @@
         <v>44531</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -3103,7 +3109,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -3176,7 +3182,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3200,7 +3206,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3227,11 +3233,15 @@
       <c r="A84" s="40">
         <v>44682</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -3248,7 +3258,7 @@
         <v>44713</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -3266,13 +3276,13 @@
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39">
@@ -3318,7 +3328,7 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39">
@@ -3340,7 +3350,7 @@
         <v>44774</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -3358,13 +3368,13 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39">
@@ -3386,7 +3396,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
@@ -3432,7 +3442,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39">
@@ -3500,7 +3510,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39">
@@ -3522,7 +3532,7 @@
         <v>44866</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -3540,13 +3550,13 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39">
@@ -3568,7 +3578,7 @@
         <v>44896</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -3590,7 +3600,7 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39">
@@ -3609,7 +3619,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3656,7 +3666,7 @@
         <v>44958</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -3674,7 +3684,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -3682,7 +3692,7 @@
         <v>44986</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -3698,13 +3708,13 @@
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3718,13 +3728,13 @@
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3738,13 +3748,13 @@
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39">
@@ -3760,7 +3770,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -3768,7 +3778,7 @@
         <v>45017</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108" s="13">
         <v>1.25</v>
@@ -3794,7 +3804,7 @@
         <v>45047</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -3818,7 +3828,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3840,7 +3850,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
@@ -3856,7 +3866,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -3884,7 +3894,7 @@
         <v>45108</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39">
@@ -3907,7 +3917,9 @@
       <c r="A114" s="40">
         <v>45139</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
@@ -3916,10 +3928,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="39">
+        <v>1</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
@@ -4545,11 +4561,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.28700000000000003</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4573,7 +4589,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4598,7 +4614,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>112.46600000000001</v>
+        <v>111.19500000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/CTO/REPILLO AMMY LOU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -365,12 +365,6 @@
     <t>UT(0-2-46)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>11/23-25/2022</t>
-  </si>
-  <si>
     <t>UT(0-2-30)</t>
   </si>
   <si>
@@ -402,6 +396,15 @@
   </si>
   <si>
     <t>UT(0-2-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>8/29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1422,12 +1425,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1595,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.445000000000007</v>
+        <v>55.810000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1602,7 +1605,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.75</v>
+        <v>59.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2020,7 +2023,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -2062,7 +2065,7 @@
         <v>43435</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -2194,7 +2197,7 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -2262,7 +2265,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -2382,7 +2385,7 @@
         <v>43647</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39">
@@ -2602,7 +2605,7 @@
         <v>43862</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -3042,7 +3045,7 @@
         <v>44470</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -3210,19 +3213,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D83" s="39"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -3231,16 +3234,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
       <c r="D84" s="39">
-        <v>0.27100000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
@@ -3255,152 +3258,154 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
-      <c r="D85" s="39"/>
+      <c r="D85" s="39">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39">
-        <v>2</v>
-      </c>
+      <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44713</v>
+      </c>
       <c r="B86" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="39">
-        <v>0.28700000000000003</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39"/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39">
+        <v>2</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D87" s="39"/>
+        <v>111</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="39">
+        <v>0.28700000000000003</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H87" s="39">
-        <v>1</v>
-      </c>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49">
-        <v>44763</v>
-      </c>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>44743</v>
+      </c>
       <c r="B88" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39">
-        <v>2.9000000000000012E-2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="49">
+        <v>44763</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="39">
-        <v>3</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>44774</v>
+      </c>
       <c r="B90" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C90" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="49">
-        <v>44790</v>
+      <c r="K90" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>0.39400000000000002</v>
+        <v>1</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -3411,92 +3416,92 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49"/>
+      <c r="K91" s="49">
+        <v>44790</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D92" s="39"/>
+        <v>114</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39">
+        <v>0.39400000000000002</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="39">
-        <v>1</v>
-      </c>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="49">
-        <v>44816</v>
-      </c>
+      <c r="K92" s="49"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>44805</v>
+      </c>
       <c r="B93" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39">
-        <v>0.379</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H93" s="39">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="49"/>
+      <c r="K93" s="49">
+        <v>44816</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D94" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39">
+        <v>0.379</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="39">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49">
-        <v>44861</v>
-      </c>
+      <c r="K94" s="49"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>44835</v>
+      </c>
       <c r="B95" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39">
         <v>1</v>
@@ -3504,69 +3509,69 @@
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="49">
-        <v>44841</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="39">
-        <v>0.28700000000000003</v>
-      </c>
+      <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="49"/>
+      <c r="K96" s="49">
+        <v>44841</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="13">
-        <v>1.25</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C97" s="13"/>
       <c r="D97" s="39">
-        <v>3</v>
+        <v>0.28700000000000003</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="K97" s="49"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>44866</v>
+      </c>
       <c r="B98" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39">
         <v>0.312</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -3896,15 +3901,17 @@
       <c r="B113" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39">
         <v>1</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -3920,13 +3927,15 @@
       <c r="B114" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39">
         <v>1</v>
@@ -3938,10 +3947,10 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B115" s="20"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
@@ -3950,18 +3959,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="39">
+        <v>1</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="49">
+        <v>45160</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B116" s="20"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
+      <c r="D116" s="39">
+        <v>2</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
@@ -3971,13 +3986,17 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="49" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B117" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
@@ -3986,14 +4005,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="49">
+        <v>45184</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4011,7 +4034,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4029,7 +4052,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4046,7 +4069,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45292</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -4062,7 +4087,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45323</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -4430,20 +4457,52 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="43"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="43"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4558,14 +4617,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.27100000000000002</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4614,7 +4673,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>111.19500000000001</v>
+        <v>115.06</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/CTO/REPILLO AMMY LOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>11/3,6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-3-37)</t>
+  </si>
+  <si>
+    <t>UT(0-1-56)</t>
+  </si>
+  <si>
+    <t>UT(0-0-46)</t>
+  </si>
+  <si>
+    <t>UT(0-1-46)</t>
+  </si>
+  <si>
+    <t>UT(0-4-11)</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1117,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1428,12 +1446,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K119" sqref="K119"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1616,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.310000000000009</v>
+        <v>55.026000000000018</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1608,7 +1626,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.75</v>
+        <v>63</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3994,36 +4012,32 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D117" s="39"/>
+        <v>130</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39">
+        <v>0.52300000000000002</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H117" s="39">
-        <v>1</v>
-      </c>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="49">
-        <v>45184</v>
-      </c>
+      <c r="K117" s="49"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B118" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
@@ -4034,21 +4048,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H118" s="39"/>
+      <c r="H118" s="39">
+        <v>1</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="49">
+        <v>45184</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39">
-        <v>2</v>
+        <v>0.221</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
@@ -4059,35 +4075,43 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="K119" s="49"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D120" s="39">
+        <v>1</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="49">
+        <v>45230</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B121" s="20"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
+      <c r="D121" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
@@ -4097,31 +4121,43 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="49"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D122" s="39">
+        <v>2</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -4134,10 +4170,16 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
+      <c r="D124" s="39">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -4150,7 +4192,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="48" t="s">
+        <v>125</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -4166,7 +4210,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45292</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -4182,7 +4228,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45323</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -4502,20 +4550,100 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4630,14 +4758,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000019E-2</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4686,7 +4814,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>118.06</v>
+        <v>118.02600000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/CTO/REPILLO AMMY LOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
   <si>
     <t>PERIOD</t>
   </si>
@@ -426,6 +426,33 @@
   </si>
   <si>
     <t>UT(0-4-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-51)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>4/26/2023 (13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/14,15,27/2023</t>
+  </si>
+  <si>
+    <t>UT(1-2-58)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>UT(0-0-50)</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1144,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1446,12 +1473,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1643,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.026000000000018</v>
+        <v>49.312000000000019</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3688,82 +3715,82 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="13">
-        <v>1.25</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C103" s="13"/>
       <c r="D103" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>96</v>
+      <c r="K103" s="49">
+        <v>44943</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D104" s="39"/>
+        <v>139</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39">
+        <v>0.10400000000000001</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="K104" s="49"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>44958</v>
+      </c>
       <c r="B105" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+        <v>95</v>
+      </c>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D105" s="39">
+        <v>2</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
+      <c r="D106" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
@@ -3773,114 +3800,102 @@
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>44986</v>
+      </c>
       <c r="B107" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="13">
-        <v>1.25</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H108" s="39">
-        <v>1</v>
-      </c>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="49">
-        <v>45042</v>
+      <c r="K108" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H109" s="39">
-        <v>1</v>
-      </c>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="49">
-        <v>45054</v>
+      <c r="K109" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
+      <c r="D110" s="39">
+        <v>2</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="39">
-        <v>1</v>
-      </c>
+      <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="49">
-        <v>45061</v>
+      <c r="K110" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
@@ -3891,24 +3906,24 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="49" t="s">
-        <v>107</v>
+      <c r="K111" s="20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D112" s="39"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39">
+        <v>1.371</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -3917,68 +3932,66 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
       </c>
-      <c r="D113" s="39">
-        <v>1</v>
-      </c>
+      <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="49">
-        <v>45118</v>
+      <c r="K113" s="49" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C114" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D114" s="39"/>
+        <v>134</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H114" s="39">
-        <v>1</v>
-      </c>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="49">
-        <v>45139</v>
-      </c>
+      <c r="K114" s="49"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45047</v>
+      </c>
       <c r="B115" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39">
         <v>1</v>
@@ -3986,39 +3999,39 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="49">
-        <v>45160</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C116" s="13"/>
-      <c r="D116" s="39">
-        <v>2</v>
-      </c>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>1</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="49" t="s">
-        <v>123</v>
+      <c r="K116" s="49">
+        <v>45061</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39">
-        <v>0.52300000000000002</v>
+        <v>4</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
@@ -4029,60 +4042,60 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="49"/>
+      <c r="K117" s="49" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D118" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H118" s="39">
-        <v>1</v>
-      </c>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="49">
-        <v>45184</v>
-      </c>
+      <c r="K118" s="49"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45078</v>
+      </c>
       <c r="B119" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C119" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39">
-        <v>0.221</v>
+        <v>0.10600000000000001</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="49"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -4100,63 +4113,65 @@
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="49">
-        <v>45230</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45139</v>
+      </c>
       <c r="B121" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C121" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
+      <c r="G121" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H121" s="39">
+        <v>1</v>
+      </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="49"/>
+      <c r="K121" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D122" s="39">
-        <v>2</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H122" s="39"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39">
+        <v>1</v>
+      </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20" t="s">
-        <v>124</v>
+      <c r="K122" s="49">
+        <v>45160</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39">
-        <v>0.24199999999999999</v>
+        <v>2</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
@@ -4167,18 +4182,18 @@
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="49" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39">
-        <v>0.45200000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
@@ -4189,33 +4204,43 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="49"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="A125" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H125" s="39">
+        <v>1</v>
+      </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="49">
+        <v>45184</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B126" s="20"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
+      <c r="D126" s="39">
+        <v>0.221</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
@@ -4225,31 +4250,43 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="49"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D127" s="39">
+        <v>1</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
+      <c r="K127" s="49">
+        <v>45230</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
+      <c r="D128" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
@@ -4259,29 +4296,43 @@
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="49"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
+      <c r="A129" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D129" s="39">
+        <v>2</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
+      <c r="D130" s="39">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
       <c r="G130" s="13" t="str">
@@ -4294,10 +4345,16 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
+      <c r="D131" s="39">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
       <c r="G131" s="13" t="str">
@@ -4310,7 +4367,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="48" t="s">
+        <v>125</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -4326,7 +4385,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>45292</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -4342,7 +4403,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>45323</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -4630,20 +4693,132 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="43"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="43"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="15"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="40"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="40"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="40"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="43"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4757,15 +4932,13 @@
         <v>15.5</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.52300000000000002</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4814,7 +4987,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>118.02600000000001</v>
+        <v>112.31200000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
